--- a/taylor-shellfish-sept2025/data/temperature/temperature.xlsx
+++ b/taylor-shellfish-sept2025/data/temperature/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-family-screenings/taylor-shellfish-sept2025/data/temperature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D4B93F-AB6F-B545-A742-4DDFD51FE677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BA1DC5-89FD-7D4D-921D-8CA19535C3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -51,6 +51,69 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>plate7</t>
+  </si>
+  <si>
+    <t>T0.5</t>
+  </si>
+  <si>
+    <t>plate8</t>
+  </si>
+  <si>
+    <t>plate9</t>
+  </si>
+  <si>
+    <t>plate12</t>
+  </si>
+  <si>
+    <t>plate13</t>
+  </si>
+  <si>
+    <t>plate15</t>
+  </si>
+  <si>
+    <t>plate16</t>
+  </si>
+  <si>
+    <t>plate17</t>
+  </si>
+  <si>
+    <t>plate19</t>
+  </si>
+  <si>
+    <t>plate1</t>
+  </si>
+  <si>
+    <t>plate2</t>
+  </si>
+  <si>
+    <t>plate4</t>
+  </si>
+  <si>
+    <t>plate5</t>
+  </si>
+  <si>
+    <t>plate6</t>
+  </si>
+  <si>
+    <t>plate10</t>
+  </si>
+  <si>
+    <t>plate11</t>
+  </si>
+  <si>
+    <t>plate18</t>
+  </si>
+  <si>
+    <t>T1.5</t>
+  </si>
+  <si>
+    <t>plate3</t>
+  </si>
+  <si>
+    <t>T2.5</t>
   </si>
 </sst>
 </file>
@@ -422,13 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -438,13 +504,489 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20250903</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>21.7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20250903</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>20.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20250903</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20250903</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>21.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20250903</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>21.4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20250903</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>22.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20250903</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>22.2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20250903</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>21.9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20250903</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>21.2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20250903</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>34.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20250903</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>30.1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20250903</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20250903</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>36.4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20250903</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20250903</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20250903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>36.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20250903</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>33.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20250903</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>29.1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20250903</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>35.1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20250903</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>33.6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20250903</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>31.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20250903</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20250903</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20250903</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>35.9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20250903</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>35.4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20250903</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>32.4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20250903</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>34.9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20250903</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>35.6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20250903</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20250903</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20250903</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20250903</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>34.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20250903</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>36.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20250903</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>35.4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
